--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATScripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A81BE-B03A-4372-807F-51B1238FFAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF2A1B-3FD7-4286-8268-3AD3C301349D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,30 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>case_url</t>
   </si>
   <si>
-    <t>case_method</t>
-  </si>
-  <si>
-    <t>case_params</t>
-  </si>
-  <si>
     <t>case_expect</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>{"success":true}</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>{"success":false}</t>
@@ -123,18 +111,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>case_depent_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_depent_key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_depent_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>case_name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -167,6 +143,30 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_params</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +529,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,37 +547,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -585,22 +585,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -608,22 +608,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,25 +631,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -657,25 +657,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -683,22 +683,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="J6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -706,25 +706,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -732,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -755,23 +755,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -779,13 +779,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -793,13 +796,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -807,13 +813,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -821,13 +830,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DF2A1B-3FD7-4286-8268-3AD3C301349D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E3C29-FDAD-4A4A-AA67-6A0AA46FE76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>case_url</t>
   </si>
@@ -32,149 +32,132 @@
     <t>other</t>
   </si>
   <si>
-    <t>{"success":true}</t>
-  </si>
-  <si>
-    <t>{"success":false}</t>
-  </si>
-  <si>
-    <t>咱们没有用户 accessToken，所以返回为false就算对</t>
-  </si>
-  <si>
-    <t>{"title":"V2EX"}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JavaScript - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>过滤敏感字符</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听雨危楼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>博客园</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>case_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>case_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://120.78.137.135:8085/comApi/TsetController/testDataPost</t>
-  </si>
-  <si>
-    <t>http://120.78.137.135:8085//comApi/TsetController/testDataGet?params=2</t>
-  </si>
-  <si>
-    <t>http://120.78.137.135:8085//comApi/TsetController/testDataGet?params=1</t>
-  </si>
-  <si>
-    <t>http://120.78.137.135:8085//comApi/TsetController/testDataGet?params=0</t>
-  </si>
-  <si>
-    <t>http://120.78.137.135:8085//comApi/TsetController/testDataGet?params=</t>
-  </si>
-  <si>
-    <t>垃圾分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>case_run</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>case_depend_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>case_depend_key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_depend_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>case_method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>case_params</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_param</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=王者荣耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=QQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=唯品会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=美团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=支付宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=爱奇艺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apkUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>case_3</t>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>case_5</t>
+  </si>
+  <si>
+    <t>case_6</t>
+  </si>
+  <si>
+    <t>case_7</t>
+  </si>
+  <si>
+    <t>case_8</t>
+  </si>
+  <si>
+    <t>case_9</t>
+  </si>
+  <si>
+    <t>case_10</t>
+  </si>
+  <si>
+    <t>case_11</t>
+  </si>
+  <si>
+    <t>case_12</t>
+  </si>
+  <si>
+    <t>case_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -191,28 +174,19 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,12 +206,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -247,13 +224,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -529,14 +518,14 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C8" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="3" width="8.9140625" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125"/>
     <col min="6" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
@@ -547,31 +536,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -581,271 +570,257 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{FBABA052-2D52-45D9-A251-476BA19C7189}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{F687A939-DB64-4D42-8C96-49B27DE1D424}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -857,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E3C29-FDAD-4A4A-AA67-6A0AA46FE76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C362B5-CAEF-48AB-AA3A-A95992281EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,135 +21,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>case_url</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_run</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_depend_param</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=王者荣耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=QQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=唯品会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=美团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=支付宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=爱奇艺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apkUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>case_3</t>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>case_5</t>
+  </si>
+  <si>
+    <t>case_6</t>
+  </si>
+  <si>
+    <t>case_7</t>
+  </si>
+  <si>
+    <t>case_8</t>
+  </si>
+  <si>
+    <t>case_9</t>
+  </si>
+  <si>
+    <t>case_10</t>
+  </si>
+  <si>
+    <t>case_11</t>
+  </si>
+  <si>
+    <t>case_12</t>
+  </si>
+  <si>
     <t>case_expect</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_run</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_depend_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_depend_key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_params</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_depend_param</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=微信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=王者荣耀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=QQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=唯品会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=美团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=支付宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=爱奇艺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apkUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_2</t>
-  </si>
-  <si>
-    <t>case_3</t>
-  </si>
-  <si>
-    <t>case_4</t>
-  </si>
-  <si>
-    <t>case_5</t>
-  </si>
-  <si>
-    <t>case_6</t>
-  </si>
-  <si>
-    <t>case_7</t>
-  </si>
-  <si>
-    <t>case_8</t>
-  </si>
-  <si>
-    <t>case_9</t>
-  </si>
-  <si>
-    <t>case_10</t>
-  </si>
-  <si>
-    <t>case_11</t>
-  </si>
-  <si>
-    <t>case_12</t>
-  </si>
-  <si>
-    <t>case_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":tru}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -517,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,288 +530,314 @@
     <col min="5" max="5" width="10.83203125"/>
     <col min="6" max="8" width="14.83203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="14.58203125" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.83203125"/>
     <col min="12" max="22" width="10.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -818,9 +845,10 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{FBABA052-2D52-45D9-A251-476BA19C7189}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{F687A939-DB64-4D42-8C96-49B27DE1D424}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{BDD4236A-C54E-447B-BD09-21AFEE4425A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C362B5-CAEF-48AB-AA3A-A95992281EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB0DC6-BFB7-42D9-9DAF-136911187BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>case_url</t>
   </si>
@@ -130,27 +130,19 @@
     <t>case_8</t>
   </si>
   <si>
+    <t>case_expect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sj.qq.com/myapp/searchAjax.htm?kw=虎扑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>case_9</t>
-  </si>
-  <si>
-    <t>case_10</t>
-  </si>
-  <si>
-    <t>case_11</t>
-  </si>
-  <si>
-    <t>case_12</t>
-  </si>
-  <si>
-    <t>case_expect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":true}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":tru}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -590,7 +582,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -613,7 +605,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,7 +628,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -660,7 +652,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -686,7 +678,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -709,7 +701,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -733,7 +725,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -746,8 +738,8 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -757,12 +749,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -770,74 +762,18 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -846,9 +782,11 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{FBABA052-2D52-45D9-A251-476BA19C7189}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{F687A939-DB64-4D42-8C96-49B27DE1D424}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{BDD4236A-C54E-447B-BD09-21AFEE4425A2}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{EE3A7981-9C50-4CFB-879D-CB4F4B669083}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{F6C125E1-762F-4FCD-8212-3124FAFEB6AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAB0DC6-BFB7-42D9-9DAF-136911187BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D485A-F1B5-46B7-82EE-5421A0117EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>case_url</t>
   </si>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>case_9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":tr}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +609,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -618,7 +622,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -784,9 +788,10 @@
     <hyperlink ref="D2" r:id="rId3" xr:uid="{BDD4236A-C54E-447B-BD09-21AFEE4425A2}"/>
     <hyperlink ref="D9" r:id="rId4" xr:uid="{EE3A7981-9C50-4CFB-879D-CB4F4B669083}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{F6C125E1-762F-4FCD-8212-3124FAFEB6AA}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{E2917EFC-A8C5-4D28-9957-3AE647C9E146}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D485A-F1B5-46B7-82EE-5421A0117EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD393E-3F7F-4CFB-8331-A4FF2EBBE8E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
   <si>
     <t>case_url</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>{"success":tr}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":123}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +784,174 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -789,9 +961,16 @@
     <hyperlink ref="D9" r:id="rId4" xr:uid="{EE3A7981-9C50-4CFB-879D-CB4F4B669083}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{F6C125E1-762F-4FCD-8212-3124FAFEB6AA}"/>
     <hyperlink ref="D4" r:id="rId6" xr:uid="{E2917EFC-A8C5-4D28-9957-3AE647C9E146}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{8DDC8D1C-0874-4843-A16D-BD5AD6F0DB61}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{70E03EDF-B64B-4F28-AE64-2244F2A6A637}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{348E08B6-A40D-42F6-90E1-57EF0BFBE932}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{77540B7B-7878-4BEB-AB29-832E2535B7B9}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{C6E0209B-A716-49EC-B492-58A092A71686}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{14B96410-79C8-43E4-BEF9-F00E2BFCFA84}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{4038D5F2-314D-41E1-B45E-97BBBA40BD73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BD393E-3F7F-4CFB-8331-A4FF2EBBE8E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA366A-3A0F-4BEE-BF00-BFE050C2BCD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
   <si>
     <t>case_url</t>
   </si>
@@ -142,16 +142,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{"success":tr}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":123}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>case_9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":tr}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":123}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_10</t>
+  </si>
+  <si>
+    <t>case_11</t>
+  </si>
+  <si>
+    <t>case_12</t>
+  </si>
+  <si>
+    <t>case_13</t>
+  </si>
+  <si>
+    <t>case_14</t>
+  </si>
+  <si>
+    <t>case_15</t>
+  </si>
+  <si>
+    <t>case_16</t>
+  </si>
+  <si>
+    <t>case_17</t>
+  </si>
+  <si>
+    <t>case_18</t>
   </si>
 </sst>
 </file>
@@ -516,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B18" sqref="B18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +639,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -762,7 +788,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -786,7 +812,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -810,7 +836,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -834,7 +860,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -858,7 +884,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -877,12 +903,12 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -906,7 +932,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -930,7 +956,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -949,6 +975,54 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -968,9 +1042,11 @@
     <hyperlink ref="D15" r:id="rId11" xr:uid="{C6E0209B-A716-49EC-B492-58A092A71686}"/>
     <hyperlink ref="D16" r:id="rId12" xr:uid="{14B96410-79C8-43E4-BEF9-F00E2BFCFA84}"/>
     <hyperlink ref="D17" r:id="rId13" xr:uid="{4038D5F2-314D-41E1-B45E-97BBBA40BD73}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{0310D30A-A6F5-4907-8189-A1757DBFA79A}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{CEF96B7F-7923-4545-8665-B38AED0DA3C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA366A-3A0F-4BEE-BF00-BFE050C2BCD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBBE6A-8BC7-4DDF-A9D7-562AB5F85ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
   <si>
     <t>case_url</t>
   </si>
@@ -178,6 +178,48 @@
   </si>
   <si>
     <t>case_18</t>
+  </si>
+  <si>
+    <t>case_19</t>
+  </si>
+  <si>
+    <t>case_20</t>
+  </si>
+  <si>
+    <t>case_21</t>
+  </si>
+  <si>
+    <t>case_22</t>
+  </si>
+  <si>
+    <t>case_23</t>
+  </si>
+  <si>
+    <t>case_24</t>
+  </si>
+  <si>
+    <t>case_25</t>
+  </si>
+  <si>
+    <t>case_26</t>
+  </si>
+  <si>
+    <t>case_27</t>
+  </si>
+  <si>
+    <t>case_28</t>
+  </si>
+  <si>
+    <t>case_29</t>
+  </si>
+  <si>
+    <t>case_30</t>
+  </si>
+  <si>
+    <t>case_31</t>
+  </si>
+  <si>
+    <t>case_32</t>
   </si>
 </sst>
 </file>
@@ -542,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:J19"/>
+      <selection activeCell="B32" sqref="B32:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,6 +1065,328 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="J20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="J21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="J23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="J25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="J26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="J28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="J31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="J33" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBBE6A-8BC7-4DDF-A9D7-562AB5F85ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41425FD4-14FC-4981-A06E-11C93B03F908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="56">
   <si>
     <t>case_url</t>
   </si>
@@ -139,14 +139,6 @@
   </si>
   <si>
     <t>https://sj.qq.com/myapp/searchAjax.htm?kw=虎扑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":tr}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"success":123}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -587,7 +579,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:J33"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +673,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -830,7 +822,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -854,7 +846,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -878,7 +870,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -902,7 +894,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -926,7 +918,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -945,12 +937,12 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -974,7 +966,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -998,7 +990,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1022,7 +1014,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1046,7 +1038,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1070,7 +1062,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -1093,7 +1085,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -1116,7 +1108,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
@@ -1139,7 +1131,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -1162,7 +1154,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
@@ -1185,7 +1177,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
@@ -1208,7 +1200,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -1231,7 +1223,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
@@ -1254,7 +1246,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
@@ -1277,7 +1269,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
@@ -1300,7 +1292,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -1323,7 +1315,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -1346,7 +1338,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
@@ -1369,7 +1361,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>20</v>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41425FD4-14FC-4981-A06E-11C93B03F908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D1753-EB30-46F5-B1D5-B6ED1EE59394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
   <si>
     <t>case_url</t>
   </si>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>搜索APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>case_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,6 +208,26 @@
   </si>
   <si>
     <t>case_32</t>
+  </si>
+  <si>
+    <t>搜索APP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索APP2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索APP3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索APP4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索APP0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,7 +595,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -632,10 +648,10 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -650,15 +666,15 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -673,15 +689,15 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -696,16 +712,16 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -720,16 +736,16 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -746,15 +762,15 @@
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -769,16 +785,16 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -793,21 +809,21 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -817,21 +833,21 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -841,21 +857,21 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -865,21 +881,21 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -889,21 +905,21 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -913,21 +929,21 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -937,21 +953,21 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -961,21 +977,21 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -985,21 +1001,21 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -1009,21 +1025,21 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -1033,21 +1049,21 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -1057,15 +1073,15 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -1080,15 +1096,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -1103,15 +1119,15 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="J21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1126,15 +1142,15 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1149,15 +1165,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="J23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -1172,15 +1188,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="J24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -1195,15 +1211,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="J25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -1218,15 +1234,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="J26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1241,15 +1257,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="J27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1264,15 +1280,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="J28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1287,15 +1303,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="J29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1310,15 +1326,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="J30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1333,15 +1349,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="J31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1356,15 +1372,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="J32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1379,7 +1395,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="J33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D1753-EB30-46F5-B1D5-B6ED1EE59394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503412DF-8889-41D4-B1C3-723B6A1971EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
   <si>
     <t>case_url</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>apkUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>case_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,6 +223,45 @@
   </si>
   <si>
     <t>搜索APP0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_33</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/user/phoneLogin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"password":"01a3a90a410be072fbcffe9699816414","phoneNum":"15989160853"},"id":"1610968043407474","sign":"a7e4be19722660d16d55a330cdd97342","timestamp":1610968043407,"user":{}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>params_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"state":{"code":0,"msg":"操作成功"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -260,6 +295,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -291,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +358,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,14 +653,15 @@
     <col min="2" max="3" width="8.9140625" customWidth="1"/>
     <col min="4" max="4" width="53.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125"/>
-    <col min="6" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="30.83203125"/>
-    <col min="12" max="22" width="10.83203125"/>
+    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="30.83203125"/>
+    <col min="13" max="23" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -628,30 +678,33 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -665,16 +718,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -688,16 +743,18 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -711,17 +768,19 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -735,17 +794,19 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -756,21 +817,21 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -784,17 +845,19 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -808,283 +871,296 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
@@ -1095,19 +1171,21 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="J20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -1118,19 +1196,21 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="J21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -1141,19 +1221,21 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="J22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -1164,19 +1246,21 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="J23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
@@ -1187,19 +1271,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="J24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -1210,19 +1296,21 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -1233,16 +1321,18 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="J26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -1256,16 +1346,18 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="J27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1279,16 +1371,18 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="J28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1302,16 +1396,18 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="J29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -1325,16 +1421,18 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="J30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -1348,16 +1446,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="J31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -1371,16 +1471,18 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="J32" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -1394,8 +1496,36 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="J33" s="2" t="s">
-        <v>29</v>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1416,9 +1546,10 @@
     <hyperlink ref="D17" r:id="rId13" xr:uid="{4038D5F2-314D-41E1-B45E-97BBBA40BD73}"/>
     <hyperlink ref="D18" r:id="rId14" xr:uid="{0310D30A-A6F5-4907-8189-A1757DBFA79A}"/>
     <hyperlink ref="D19" r:id="rId15" xr:uid="{CEF96B7F-7923-4545-8665-B38AED0DA3C2}"/>
+    <hyperlink ref="D34" r:id="rId16" xr:uid="{C1E54CE7-FDE4-4BB3-BC29-58CD06852E59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503412DF-8889-41D4-B1C3-723B6A1971EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A7E87-B7E1-44F4-97E4-037F938CEE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t>case_url</t>
   </si>
@@ -230,10 +230,6 @@
   </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +640,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="C11" sqref="C11:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -985,7 +981,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>29</v>
@@ -1010,7 +1006,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>29</v>
@@ -1035,7 +1031,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
@@ -1060,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -1085,7 +1081,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>29</v>
@@ -1110,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -1135,7 +1131,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
@@ -1160,7 +1156,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
@@ -1185,7 +1181,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -1210,7 +1206,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -1235,7 +1231,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -1260,7 +1256,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
@@ -1285,7 +1281,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -1310,7 +1306,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -1507,25 +1503,25 @@
         <v>59</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="G34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A7E87-B7E1-44F4-97E4-037F938CEE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33F232-A5F1-4F4F-951F-8CF66AAB67F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
   <si>
     <t>case_url</t>
   </si>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +644,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C28"/>
+      <selection activeCell="C14" sqref="C14:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1010,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>29</v>
@@ -1031,7 +1035,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>29</v>
@@ -1056,7 +1060,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -1081,7 +1085,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>29</v>
@@ -1106,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -1131,7 +1135,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
@@ -1156,7 +1160,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
@@ -1181,7 +1185,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -1206,7 +1210,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -1231,7 +1235,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -1256,7 +1260,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
@@ -1281,7 +1285,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -1306,7 +1310,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -1331,7 +1335,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33F232-A5F1-4F4F-951F-8CF66AAB67F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C664C13-5E1C-4367-B397-76B863718528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
   <si>
     <t>case_url</t>
   </si>
@@ -262,6 +262,314 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/userbaby/getDetailInfo</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/integral/getRewardPoint</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/common/todayCourseRemind</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/common/subjectTopiclist</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/commentReport/getSystemMsgNum</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/commentReport/getReportMsgNums</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/evaluation/getEvaluationIndexStatus</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/user/getUserStatus</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/common/listBanner</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/common/versionUpdate</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/common/getAdvertising</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/integral/getIntegral</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/evaluation/getEvaluationStatus</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/teacher/listTeacher</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/course/checkSpecial</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/common/getUnSubscribe</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/course/getCourseCatalogList</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/childCamp/getConfigDataByCampId</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/childCamp/getUserCourseList</t>
+  </si>
+  <si>
+    <t>https://app.nicebooker.com/parental/app/v1/clockin/getClockInActivity</t>
+  </si>
+  <si>
+    <t>case_34</t>
+  </si>
+  <si>
+    <t>case_35</t>
+  </si>
+  <si>
+    <t>case_36</t>
+  </si>
+  <si>
+    <t>case_37</t>
+  </si>
+  <si>
+    <t>case_38</t>
+  </si>
+  <si>
+    <t>case_39</t>
+  </si>
+  <si>
+    <t>case_40</t>
+  </si>
+  <si>
+    <t>case_41</t>
+  </si>
+  <si>
+    <t>case_42</t>
+  </si>
+  <si>
+    <t>case_43</t>
+  </si>
+  <si>
+    <t>case_44</t>
+  </si>
+  <si>
+    <t>case_45</t>
+  </si>
+  <si>
+    <t>case_46</t>
+  </si>
+  <si>
+    <t>case_47</t>
+  </si>
+  <si>
+    <t>case_48</t>
+  </si>
+  <si>
+    <t>case_49</t>
+  </si>
+  <si>
+    <t>case_50</t>
+  </si>
+  <si>
+    <t>case_51</t>
+  </si>
+  <si>
+    <t>case_52</t>
+  </si>
+  <si>
+    <t>case_53</t>
+  </si>
+  <si>
+    <t>case_54</t>
+  </si>
+  <si>
+    <t>case_55</t>
+  </si>
+  <si>
+    <t>case_56</t>
+  </si>
+  <si>
+    <t>case_57</t>
+  </si>
+  <si>
+    <t>case_58</t>
+  </si>
+  <si>
+    <t>case_59</t>
+  </si>
+  <si>
+    <t>case_60</t>
+  </si>
+  <si>
+    <t>case_61</t>
+  </si>
+  <si>
+    <t>case_62</t>
+  </si>
+  <si>
+    <t>case_63</t>
+  </si>
+  <si>
+    <t>case_64</t>
+  </si>
+  <si>
+    <t>case_65</t>
+  </si>
+  <si>
+    <t>case_66</t>
+  </si>
+  <si>
+    <t>case_67</t>
+  </si>
+  <si>
+    <t>case_68</t>
+  </si>
+  <si>
+    <t>hexiaoyu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968043916936","sign":"6ac9bb271ebd14ef13ad77adf6f79efc","timestamp":1610968043916,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968043940183","sign":"b0fbd48f7983ca23fa6607c424691333","timestamp":1610968043940,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044071458","sign":"117e566d4996396a0e2898280a054c0f","timestamp":1610968044071,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"subject":"chinese"},"id":"1610968044074851","sign":"86813f2f73bf6e1078d4cc4ebd7082b5","timestamp":1610968044074,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044106412","sign":"99370b4d3f203aae8260defe729cf4a7","timestamp":1610968044106,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044114812","sign":"9e295f1b158ae403ccf6889cbec86646","timestamp":1610968044114,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044117178","sign":"ac234586e55671763d2487f38ef347f6","timestamp":1610968044117,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"contractVersion":"2020-01-15"},"id":"1610968044304509","sign":"44f00dbeb4cfbca5ec2c85b2422cb8a8","timestamp":1610968044304,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044400528","sign":"742664a3d96d9f3ad5c356939e6e3ada","timestamp":1610968044400,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044544251","sign":"b882d088c36e6c55c717f791c403d96c","timestamp":1610968044544,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968044810937","sign":"99eb88fd0d1175233028b9bd082375d9","timestamp":1610968044810,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968450348019","sign":"6c433f1caac832bac174e725f9068a72","timestamp":1610968450348,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968450372186","sign":"46507dc35a8023aeb330466e4e981841","timestamp":1610968450372,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968450346764","sign":"d351c553ccb3107f2b4b79578406c041","timestamp":1610968450346,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968450339071","sign":"11d02fba714740f0466b3a521e46fe53","timestamp":1610968450339,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968461995723","sign":"2bc50d5727c859485130dde039f0dc14","timestamp":1610968461995,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968486599138","sign":"518c7c8ca4fb04ac1f5152c4126281dd","timestamp":1610968486599,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968486606857","sign":"b5de9dcd8520be213ff655f53461c09c","timestamp":1610968486606,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968489832401","sign":"568a7981e39d24482287c4d0ced31e83","timestamp":1610968489832,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968493529893","sign":"5e60983b47be8d8ca86e852f5ed6c9ff","timestamp":1610968493529,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968493534160","sign":"693785fbfb2432a88b2147703c749755","timestamp":1610968493534,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968504378174","sign":"34c3d8def7e3504ad2d1209e540ca857","timestamp":1610968504378,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968505177165","sign":"86bb16aea91f2c4e2220e49b71e90c68","timestamp":1610968505177,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968505205772","sign":"82a7370436e9432aeb18d28136411ba4","timestamp":1610968505205,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968530396454","sign":"29881bf59fbba1afa3e478d6b4afa387","timestamp":1610968530396,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968530375898","sign":"eb74637e854431d5ee42a6c4d80d000a","timestamp":1610968530375,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968535138706","sign":"572dbc04eab0235d3d989d6572846819","timestamp":1610968535138,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"subject":"chinese"},"id":"1610968535153316","sign":"9907381d8dab105a75f856f017231355","timestamp":1610968535153,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968537694596","sign":"49f24ec92785d3740ea1631f1b3d8e93","timestamp":1610968537694,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968537712840","sign":"06fa6d1b6233d4d3a5f74d5b62df8483","timestamp":1610968537712,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"subject":"chinese"},"id":"1610968538164192","sign":"7211ad2116703b27034adbdafd49609a","timestamp":1610968538164,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{},"id":"1610968538402807","sign":"5f65c4e495d3c5e00e77761033850d4b","timestamp":1610968538402,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"campId":1000001750665211},"id":"1610968538409921","sign":"018cb6592387fad7c991abf62e10744e","timestamp":1610968538409,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"campId":1000001750665211,"catalogSort":2000001750665241,"filter":"ALL"},"id":"1610968538504578","sign":"29f8817bc2123473678a836e63933793","timestamp":1610968538504,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client":{"bundleId":"com.qlchat.hexiaoyu","caller":"app","ex":{"model":"VOG-AL00"},"os":"25","platform":"android","ver":"1.3.1"},"data":{"campId":1000001750665211,"subject":"chinese"},"id":"1610968538512181","sign":"14e89f22ceee99ea017c2a75c511aab3","timestamp":1610968538512,"user":{"sid":"41539b39836e43ec920e2cf8dd323973","userId":2000002398561712}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +671,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,19 +955,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="3" width="8.9140625" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125"/>
-    <col min="6" max="6" width="38.08203125" customWidth="1"/>
+    <col min="6" max="6" width="56.9140625" style="11" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
@@ -677,7 +993,7 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -715,7 +1031,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -740,7 +1056,7 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -765,7 +1081,7 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -791,7 +1107,7 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -817,7 +1133,7 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
       <c r="H6" s="6"/>
       <c r="I6" s="1"/>
@@ -842,7 +1158,7 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -868,7 +1184,7 @@
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -893,7 +1209,7 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -918,7 +1234,7 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -943,7 +1259,7 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -968,7 +1284,7 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -993,7 +1309,7 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1018,7 +1334,7 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1043,7 +1359,7 @@
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1068,7 +1384,7 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1093,7 +1409,7 @@
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1118,7 +1434,7 @@
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1143,7 +1459,7 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1168,7 +1484,7 @@
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1193,7 +1509,7 @@
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1218,7 +1534,7 @@
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1243,7 +1559,7 @@
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1268,7 +1584,7 @@
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1293,7 +1609,7 @@
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1318,7 +1634,7 @@
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1343,7 +1659,7 @@
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1368,7 +1684,7 @@
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1393,7 +1709,7 @@
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1418,7 +1734,7 @@
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1443,7 +1759,7 @@
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1468,7 +1784,7 @@
       <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1493,7 +1809,7 @@
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1502,7 +1818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
@@ -1525,6 +1841,811 @@
         <v>65</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>66</v>
       </c>
     </row>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C664C13-5E1C-4367-B397-76B863718528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749A14F-D4A9-4178-997D-8C5283A9F7AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="160">
   <si>
     <t>case_url</t>
   </si>
@@ -642,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -653,12 +653,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
@@ -678,6 +672,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -957,19 +966,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36:G69"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="3" width="8.9140625" customWidth="1"/>
-    <col min="4" max="4" width="61.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125"/>
-    <col min="6" max="6" width="56.9140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="14"/>
+    <col min="6" max="6" width="56.9140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="10" width="14.83203125" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" customWidth="1"/>
@@ -987,13 +996,13 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1016,7 +1025,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1025,13 +1034,13 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1041,7 +1050,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1050,13 +1059,13 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1066,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1075,13 +1084,13 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1092,7 +1101,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1101,13 +1110,13 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1118,7 +1127,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1127,15 +1136,15 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
@@ -1143,7 +1152,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1152,13 +1161,13 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1169,7 +1178,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1178,13 +1187,13 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="E8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1194,7 +1203,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1203,13 +1212,13 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="E9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1219,7 +1228,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1228,13 +1237,13 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1244,7 +1253,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1253,13 +1262,13 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="E11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1269,7 +1278,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1278,13 +1287,13 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1294,7 +1303,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1303,13 +1312,13 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="E13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1319,7 +1328,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1328,13 +1337,13 @@
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="E14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1344,7 +1353,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1353,13 +1362,13 @@
       <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1369,7 +1378,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1378,13 +1387,13 @@
       <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1394,7 +1403,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1403,13 +1412,13 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1419,7 +1428,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1428,13 +1437,13 @@
       <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1444,7 +1453,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1453,13 +1462,13 @@
       <c r="C19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="E19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1469,7 +1478,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1478,13 +1487,13 @@
       <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="E20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1494,7 +1503,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1503,13 +1512,13 @@
       <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="E21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1519,7 +1528,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1528,13 +1537,13 @@
       <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1544,7 +1553,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1553,13 +1562,13 @@
       <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="E23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1569,7 +1578,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1578,13 +1587,13 @@
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="E24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1594,7 +1603,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1603,13 +1612,13 @@
       <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="E25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1619,7 +1628,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1628,13 +1637,13 @@
       <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="E26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1644,7 +1653,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1653,13 +1662,13 @@
       <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1669,7 +1678,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1678,13 +1687,13 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1694,7 +1703,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1703,13 +1712,13 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1719,7 +1728,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1728,13 +1737,13 @@
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="E30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1744,7 +1753,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1753,13 +1762,13 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1769,7 +1778,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1778,13 +1787,13 @@
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="10"/>
+      <c r="E32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1794,7 +1803,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1803,13 +1812,13 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="E33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1819,25 +1828,25 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -1845,22 +1854,25 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -1868,22 +1880,25 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -1891,22 +1906,25 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -1914,22 +1932,25 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -1937,22 +1958,25 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="E39" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -1960,22 +1984,25 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K40" s="2" t="s">
@@ -1983,22 +2010,25 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="E41" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -2006,22 +2036,25 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="E42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K42" s="2" t="s">
@@ -2029,22 +2062,25 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -2052,22 +2088,25 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -2075,22 +2114,25 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K45" s="2" t="s">
@@ -2098,22 +2140,25 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -2121,22 +2166,25 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K47" s="2" t="s">
@@ -2144,22 +2192,25 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="E48" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K48" s="2" t="s">
@@ -2167,22 +2218,25 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K49" s="2" t="s">
@@ -2190,22 +2244,25 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="E50" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K50" s="2" t="s">
@@ -2213,22 +2270,25 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K51" s="2" t="s">
@@ -2236,22 +2296,25 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="E52" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K52" s="2" t="s">
@@ -2259,22 +2322,25 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="E53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K53" s="2" t="s">
@@ -2282,22 +2348,25 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="E54" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K54" s="2" t="s">
@@ -2305,22 +2374,25 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="E55" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K55" s="2" t="s">
@@ -2328,22 +2400,25 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="E56" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K56" s="2" t="s">
@@ -2351,22 +2426,25 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B57" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="E57" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K57" s="2" t="s">
@@ -2374,22 +2452,25 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="E58" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -2397,22 +2478,25 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B59" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K59" s="2" t="s">
@@ -2420,22 +2504,25 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="E60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K60" s="2" t="s">
@@ -2443,22 +2530,25 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K61" s="2" t="s">
@@ -2466,22 +2556,25 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="E62" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K62" s="2" t="s">
@@ -2489,22 +2582,25 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K63" s="2" t="s">
@@ -2512,22 +2608,25 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K64" s="2" t="s">
@@ -2535,22 +2634,25 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K65" s="2" t="s">
@@ -2558,22 +2660,25 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B66" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="E66" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K66" s="2" t="s">
@@ -2581,22 +2686,25 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="B67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K67" s="2" t="s">
@@ -2604,22 +2712,25 @@
       </c>
     </row>
     <row r="68" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="E68" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K68" s="2" t="s">
@@ -2627,22 +2738,25 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B69" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="E69" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K69" s="2" t="s">

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A2BBC-A11F-40DE-A80B-F19B9300182B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC0A98-2908-476E-B4D0-FD202CD53CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
   <si>
     <t>case_url</t>
   </si>
@@ -459,6 +459,10 @@
   </si>
   <si>
     <t>case_32</t>
+  </si>
+  <si>
+    <t>{"stte":{"code":0,"msg":"操作成功"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -909,9 +913,9 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A45"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1266,7 @@
         <v>72</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="K12" s="3"/>
     </row>

--- a/data/接口测试示例.xlsx
+++ b/data/接口测试示例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InterfaceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC0A98-2908-476E-B4D0-FD202CD53CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83D3DDB-C4AD-4BAD-B011-CCDDE01855E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
     <t>case_32</t>
   </si>
   <si>
-    <t>{"stte":{"code":0,"msg":"操作成功"}}</t>
+    <t>{"state":{"code":0,"msg":"操作功"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,9 +913,9 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
